--- a/backend/export-excel/Try create responses.xlsx
+++ b/backend/export-excel/Try create responses.xlsx
@@ -15,15 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Respondent</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>Lastname</t>
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Jimuel</t>
+  </si>
+  <si>
+    <t>Hayan</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>jimuelvictoria@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -71,9 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -375,21 +399,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:D1"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +425,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
